--- a/xlsx/experiment_results.xlsx
+++ b/xlsx/experiment_results.xlsx
@@ -3566,6 +3566,12 @@
       <c r="F46" s="51">
         <v>48.0</v>
       </c>
+      <c r="G46" s="53">
+        <v>8.0</v>
+      </c>
+      <c r="H46" s="53">
+        <v>1.0</v>
+      </c>
       <c r="M46" s="53" t="s">
         <v>25</v>
       </c>
@@ -3821,6 +3827,12 @@
       <c r="F51" s="51">
         <v>48.0</v>
       </c>
+      <c r="G51" s="53">
+        <v>11.0</v>
+      </c>
+      <c r="H51" s="53">
+        <v>2.0</v>
+      </c>
       <c r="M51" s="53" t="s">
         <v>25</v>
       </c>
@@ -4076,6 +4088,12 @@
       <c r="F56" s="51">
         <v>48.0</v>
       </c>
+      <c r="G56" s="53">
+        <v>0.0</v>
+      </c>
+      <c r="H56" s="53">
+        <v>0.0</v>
+      </c>
       <c r="M56" s="53" t="s">
         <v>25</v>
       </c>
@@ -4331,6 +4349,12 @@
       <c r="F61" s="51">
         <v>48.0</v>
       </c>
+      <c r="G61" s="53">
+        <v>0.0</v>
+      </c>
+      <c r="H61" s="53">
+        <v>0.0</v>
+      </c>
       <c r="M61" s="53" t="s">
         <v>25</v>
       </c>
@@ -4589,16 +4613,16 @@
       <c r="G66" s="1">
         <v>19.0</v>
       </c>
-      <c r="H66" s="1">
-        <v>9.0</v>
+      <c r="H66" s="15">
+        <v>8.0</v>
       </c>
       <c r="I66" s="60">
         <f t="shared" si="17"/>
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="J66" s="48">
         <f t="shared" si="18"/>
-        <v>0.06293706294</v>
+        <v>0.05594405594</v>
       </c>
       <c r="K66" s="62">
         <f t="shared" si="19"/>
@@ -4877,10 +4901,10 @@
         <v>48.0</v>
       </c>
       <c r="G71" s="53">
-        <v>0.0</v>
+        <v>21.0</v>
       </c>
       <c r="H71" s="53">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="M71" s="53" t="s">
         <v>25</v>
@@ -5138,10 +5162,10 @@
         <v>48.0</v>
       </c>
       <c r="G76" s="53">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="H76" s="53">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="M76" s="53" t="s">
         <v>25</v>
@@ -5399,10 +5423,10 @@
         <v>48.0</v>
       </c>
       <c r="G81" s="53">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="H81" s="53">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M81" s="53" t="s">
         <v>25</v>
@@ -5660,10 +5684,10 @@
         <v>143.0</v>
       </c>
       <c r="G86" s="53">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="H86" s="53">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="M86" s="53" t="s">
         <v>26</v>
@@ -5921,10 +5945,10 @@
         <v>143.0</v>
       </c>
       <c r="G91" s="53">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="H91" s="53">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="M91" s="53" t="s">
         <v>26</v>
@@ -6704,10 +6728,10 @@
         <v>143.0</v>
       </c>
       <c r="G106" s="53">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="H106" s="53">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="M106" s="53" t="s">
         <v>26</v>
@@ -6965,10 +6989,10 @@
         <v>143.0</v>
       </c>
       <c r="G111" s="53">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="H111" s="53">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="M111" s="53" t="s">
         <v>26</v>
